--- a/data/trans_orig/IP05A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B122489A-81DC-485C-BC3F-087133633131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16EAA650-93F4-49CC-B73A-834A8515A301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6FA7114-5754-4641-BB42-8208A2DE8ACA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EFCDE2E-BA1B-484E-B14E-21565B41E1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="513">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -77,1501 +77,1507 @@
     <t>82,33%</t>
   </si>
   <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>83,01%</t>
   </si>
   <si>
-    <t>76,61%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2015 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>2,56%</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1472E6E5-C098-4F6E-8F13-D0161AF2CCA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143B1AF8-D7EF-4843-AE5E-54784662C76A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3145,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC6DEC0-5865-4506-A95B-107CB95F4DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C0945-F6F5-482A-A01E-C584A6980660}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,7 +3347,7 @@
         <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3350,13 +3356,13 @@
         <v>26956</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3377,13 @@
         <v>2104</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3401,13 +3407,13 @@
         <v>3581</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3481,13 @@
         <v>234154</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -3490,13 +3496,13 @@
         <v>205354</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>622</v>
@@ -3505,13 +3511,13 @@
         <v>439508</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,10 +3535,10 @@
         <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H9" s="7">
         <v>38</v>
@@ -3541,13 +3547,13 @@
         <v>26611</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -3556,7 +3562,7 @@
         <v>55748</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>192</v>
@@ -3738,7 +3744,7 @@
         <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3747,13 +3753,13 @@
         <v>14195</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3762,13 +3768,13 @@
         <v>34033</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3789,13 @@
         <v>2088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3798,13 +3804,13 @@
         <v>1351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3813,13 +3819,13 @@
         <v>3439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3893,13 @@
         <v>158158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
@@ -3902,13 +3908,13 @@
         <v>149163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -3917,13 +3923,13 @@
         <v>307321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3944,13 @@
         <v>19114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -3953,13 +3959,13 @@
         <v>15702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -3968,13 +3974,13 @@
         <v>34816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3995,13 @@
         <v>2684</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -4004,13 +4010,13 @@
         <v>5067</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -4019,13 +4025,13 @@
         <v>7751</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4099,13 @@
         <v>659544</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>900</v>
@@ -4108,13 +4114,13 @@
         <v>623603</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>1839</v>
@@ -4123,13 +4129,13 @@
         <v>1283147</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4150,13 @@
         <v>79013</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -4159,13 +4165,13 @@
         <v>72540</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -4174,13 +4180,13 @@
         <v>151553</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,10 +4204,10 @@
         <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -4210,13 +4216,13 @@
         <v>11337</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4225,13 +4231,13 @@
         <v>21812</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CDB85-E0D8-431F-9B0B-AB315AF46BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82773699-A2D5-4181-8FAF-65E0D5240686}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4324,7 +4330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4431,13 +4437,13 @@
         <v>108117</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>178</v>
@@ -4446,13 +4452,13 @@
         <v>111187</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
@@ -4482,13 +4488,13 @@
         <v>12647</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4497,13 +4503,13 @@
         <v>13003</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -4512,13 +4518,13 @@
         <v>25650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4539,13 @@
         <v>2712</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -4548,13 +4554,13 @@
         <v>5723</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4563,13 +4569,13 @@
         <v>8435</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4643,13 @@
         <v>215343</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>282</v>
@@ -4652,13 +4658,13 @@
         <v>179759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>598</v>
@@ -4667,13 +4673,13 @@
         <v>395103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4694,13 @@
         <v>35348</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -4703,13 +4709,13 @@
         <v>21725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M9" s="7">
         <v>88</v>
@@ -4718,13 +4724,13 @@
         <v>57073</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4745,13 @@
         <v>5758</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4754,13 +4760,13 @@
         <v>8462</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4769,13 +4775,13 @@
         <v>14221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4849,13 @@
         <v>153479</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="H12" s="7">
         <v>234</v>
@@ -4858,13 +4864,13 @@
         <v>162376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M12" s="7">
         <v>448</v>
@@ -4876,10 +4882,10 @@
         <v>98</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4900,13 @@
         <v>24733</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4909,13 +4915,13 @@
         <v>20784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4924,13 +4930,13 @@
         <v>45516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4951,13 @@
         <v>10360</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -4960,13 +4966,13 @@
         <v>4562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -4975,13 +4981,13 @@
         <v>14922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5055,13 @@
         <v>145297</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>198</v>
@@ -5064,13 +5070,13 @@
         <v>139580</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>394</v>
@@ -5079,13 +5085,13 @@
         <v>284877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5106,13 @@
         <v>21383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -5115,13 +5121,13 @@
         <v>23947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -5130,13 +5136,13 @@
         <v>45329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5157,13 @@
         <v>4437</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5166,13 +5172,13 @@
         <v>8606</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5181,13 +5187,13 @@
         <v>13044</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5261,13 @@
         <v>622237</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>892</v>
@@ -5270,28 +5276,28 @@
         <v>592902</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>1781</v>
       </c>
       <c r="N20" s="7">
-        <v>1215138</v>
+        <v>1215139</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5312,13 @@
         <v>94110</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>244</v>
+        <v>383</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H21" s="7">
         <v>119</v>
@@ -5321,10 +5327,10 @@
         <v>79458</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>388</v>
@@ -5333,16 +5339,16 @@
         <v>255</v>
       </c>
       <c r="N21" s="7">
-        <v>173568</v>
+        <v>173569</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>389</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,10 +5363,10 @@
         <v>23267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>393</v>
@@ -5390,10 +5396,10 @@
         <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,7 +5441,7 @@
         <v>2111</v>
       </c>
       <c r="N23" s="7">
-        <v>1439328</v>
+        <v>1439329</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5469,7 +5475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81015FF0-FFE8-44FD-AA11-41BA665F5A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92597480-AAF4-4144-BA97-793DDEA03878}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5486,7 +5492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5593,13 +5599,13 @@
         <v>50521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -5608,13 +5614,13 @@
         <v>52519</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
@@ -5623,13 +5629,13 @@
         <v>103038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5650,13 @@
         <v>6627</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5659,13 +5665,13 @@
         <v>4029</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5674,13 +5680,13 @@
         <v>10656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,7 +5701,7 @@
         <v>1356</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>418</v>
@@ -5731,7 +5737,7 @@
         <v>423</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>424</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5805,13 @@
         <v>157806</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H8" s="7">
         <v>236</v>
@@ -5814,13 +5820,13 @@
         <v>144614</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M8" s="7">
         <v>487</v>
@@ -5829,13 +5835,13 @@
         <v>302420</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5856,13 @@
         <v>11793</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -5865,13 +5871,13 @@
         <v>7851</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>94</v>
+        <v>436</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -5880,13 +5886,13 @@
         <v>19643</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5907,13 @@
         <v>4796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5919,10 +5925,10 @@
         <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5931,13 +5937,13 @@
         <v>9500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6011,13 @@
         <v>188462</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
         <v>216</v>
@@ -6020,13 +6026,13 @@
         <v>164179</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>441</v>
@@ -6035,13 +6041,13 @@
         <v>352641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6062,13 @@
         <v>10115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -6071,13 +6077,13 @@
         <v>9370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -6086,13 +6092,13 @@
         <v>19484</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>459</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6113,13 @@
         <v>3001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6122,13 +6128,13 @@
         <v>3396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -6137,13 +6143,13 @@
         <v>6397</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6217,13 @@
         <v>269845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H16" s="7">
         <v>309</v>
@@ -6226,13 +6232,13 @@
         <v>228047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M16" s="7">
         <v>627</v>
@@ -6241,13 +6247,13 @@
         <v>497893</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6268,13 @@
         <v>13388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -6277,13 +6283,13 @@
         <v>27135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -6292,13 +6298,13 @@
         <v>40523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6319,13 @@
         <v>4075</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>486</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -6328,13 +6334,13 @@
         <v>3208</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -6343,13 +6349,13 @@
         <v>7283</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>489</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6423,13 @@
         <v>666633</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H20" s="7">
         <v>862</v>
@@ -6432,13 +6438,13 @@
         <v>589359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>494</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M20" s="7">
         <v>1757</v>
@@ -6447,13 +6453,13 @@
         <v>1255992</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>497</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6474,13 @@
         <v>41922</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>216</v>
+        <v>500</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>499</v>
+        <v>295</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -6483,13 +6489,13 @@
         <v>48385</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M21" s="7">
         <v>119</v>
@@ -6498,13 +6504,13 @@
         <v>90307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>361</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6525,13 @@
         <v>13227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6534,10 +6540,10 @@
         <v>12129</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>510</v>
@@ -6549,13 +6555,13 @@
         <v>25356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>511</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP05A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16EAA650-93F4-49CC-B73A-834A8515A301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD463F0-12A9-4453-B3A2-037CB008D8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EFCDE2E-BA1B-484E-B14E-21565B41E1F8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DBBCB344-009C-46D0-94BC-65114809EF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="506">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1510 +74,1489 @@
     <t>Nada</t>
   </si>
   <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>3,0%</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143B1AF8-D7EF-4843-AE5E-54784662C76A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C438934-C4C0-4FE8-88E0-11259EB17397}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2107,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>99927</v>
+        <v>87756</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2122,10 +2101,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I4" s="7">
-        <v>87756</v>
+        <v>99927</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2158,10 +2137,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>18024</v>
+        <v>15202</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2173,10 +2152,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>15202</v>
+        <v>18024</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2209,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>3429</v>
+        <v>2765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2224,10 +2203,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>2765</v>
+        <v>3429</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2260,25 +2239,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>161</v>
+      </c>
+      <c r="D7" s="7">
+        <v>105723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>182</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>161</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105723</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2313,10 +2292,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>205255</v>
+        <v>207575</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2328,10 +2307,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I8" s="7">
-        <v>207575</v>
+        <v>205255</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2364,10 +2343,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7">
-        <v>41084</v>
+        <v>37101</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2379,10 +2358,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>37101</v>
+        <v>41084</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2415,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>5402</v>
+        <v>6638</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2430,10 +2409,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6638</v>
+        <v>5402</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2466,25 +2445,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>376</v>
+      </c>
+      <c r="D11" s="7">
+        <v>251313</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>379</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>251740</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>376</v>
-      </c>
-      <c r="I11" s="7">
-        <v>251313</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2519,10 +2498,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D12" s="7">
-        <v>114162</v>
+        <v>98219</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2534,10 +2513,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="I12" s="7">
-        <v>98219</v>
+        <v>114162</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2570,10 +2549,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>23514</v>
+        <v>25998</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2585,10 +2564,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>25998</v>
+        <v>23514</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2621,10 +2600,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>3840</v>
+        <v>3331</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2636,10 +2615,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>3331</v>
+        <v>3840</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2672,25 +2651,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>191</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2725,10 +2704,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="D16" s="7">
-        <v>172962</v>
+        <v>161056</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2740,10 +2719,10 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="I16" s="7">
-        <v>161056</v>
+        <v>172962</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2776,10 +2755,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>27241</v>
+        <v>26608</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2791,10 +2770,10 @@
         <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>26608</v>
+        <v>27241</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2827,31 +2806,31 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>5846</v>
+        <v>5779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>5779</v>
+        <v>5846</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>120</v>
@@ -2878,25 +2857,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>285</v>
+      </c>
+      <c r="D19" s="7">
+        <v>193443</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>310</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>206049</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>285</v>
-      </c>
-      <c r="I19" s="7">
-        <v>193443</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2931,10 +2910,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>892</v>
+        <v>830</v>
       </c>
       <c r="D20" s="7">
-        <v>592306</v>
+        <v>554606</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>124</v>
@@ -2946,10 +2925,10 @@
         <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>830</v>
+        <v>892</v>
       </c>
       <c r="I20" s="7">
-        <v>554606</v>
+        <v>592306</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>127</v>
@@ -2982,10 +2961,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D21" s="7">
-        <v>109862</v>
+        <v>104908</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>133</v>
@@ -2997,10 +2976,10 @@
         <v>135</v>
       </c>
       <c r="H21" s="7">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I21" s="7">
-        <v>104908</v>
+        <v>109862</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>136</v>
@@ -3033,28 +3012,28 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7">
+        <v>18514</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="7">
         <v>28</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>18516</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H22" s="7">
-        <v>27</v>
-      </c>
-      <c r="I22" s="7">
-        <v>18514</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>145</v>
@@ -3084,25 +3063,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1013</v>
+      </c>
+      <c r="D23" s="7">
+        <v>678027</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1083</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>720684</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I23" s="7">
-        <v>678027</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3151,7 +3130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C0945-F6F5-482A-A01E-C584A6980660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3513F00E-FC99-4347-92F2-DE0148502079}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3269,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D4" s="7">
-        <v>130587</v>
+        <v>129253</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>152</v>
@@ -3284,10 +3263,10 @@
         <v>154</v>
       </c>
       <c r="H4" s="7">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I4" s="7">
-        <v>129253</v>
+        <v>130587</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>155</v>
@@ -3320,10 +3299,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>10925</v>
+        <v>16032</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>161</v>
@@ -3335,10 +3314,10 @@
         <v>163</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>16032</v>
+        <v>10925</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>164</v>
@@ -3347,7 +3326,7 @@
         <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3356,13 +3335,13 @@
         <v>26956</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,34 +3350,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1476</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2104</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1476</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3410,10 +3389,10 @@
         <v>38</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,25 +3401,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>204</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>143616</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3475,34 +3454,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>296</v>
+      </c>
+      <c r="D8" s="7">
+        <v>205354</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="7">
         <v>326</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>234154</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="7">
-        <v>296</v>
-      </c>
-      <c r="I8" s="7">
-        <v>205354</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>622</v>
@@ -3511,13 +3490,13 @@
         <v>439508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,34 +3505,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
+        <v>26611</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="7">
+        <v>40</v>
+      </c>
+      <c r="I9" s="7">
         <v>29137</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="7">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7">
-        <v>26611</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -3562,13 +3541,13 @@
         <v>55748</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,31 +3559,31 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3598</v>
+        <v>3443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3443</v>
+        <v>3598</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3613,13 +3592,13 @@
         <v>7041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,25 +3607,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>339</v>
+      </c>
+      <c r="D11" s="7">
+        <v>235408</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>371</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>266889</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>339</v>
-      </c>
-      <c r="I11" s="7">
-        <v>235408</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3681,34 +3660,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>199</v>
+      </c>
+      <c r="D12" s="7">
+        <v>139833</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="7">
         <v>196</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>136645</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="7">
-        <v>199</v>
-      </c>
-      <c r="I12" s="7">
-        <v>139833</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>395</v>
@@ -3717,13 +3696,13 @@
         <v>276477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,34 +3711,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14195</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="7">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>19838</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14195</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3768,13 +3747,13 @@
         <v>34033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,34 +3762,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1351</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2088</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1351</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3819,13 +3798,13 @@
         <v>3439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,25 +3813,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>221</v>
+      </c>
+      <c r="D15" s="7">
+        <v>155379</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>221</v>
-      </c>
-      <c r="I15" s="7">
-        <v>155379</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3887,34 +3866,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>212</v>
+      </c>
+      <c r="D16" s="7">
+        <v>149163</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D16" s="7">
+      <c r="H16" s="7">
+        <v>232</v>
+      </c>
+      <c r="I16" s="7">
         <v>158158</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="7">
-        <v>212</v>
-      </c>
-      <c r="I16" s="7">
-        <v>149163</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>444</v>
@@ -3923,13 +3902,13 @@
         <v>307321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,34 +3917,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7">
+        <v>15702</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="7">
         <v>29</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>19114</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15702</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -3974,13 +3953,13 @@
         <v>34816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,34 +3968,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5067</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2684</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5067</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -4025,13 +4004,13 @@
         <v>7751</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,25 +4019,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>241</v>
+      </c>
+      <c r="D19" s="7">
+        <v>169932</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>241</v>
-      </c>
-      <c r="I19" s="7">
-        <v>169932</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4093,34 +4072,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>900</v>
+      </c>
+      <c r="D20" s="7">
+        <v>623603</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="7">
         <v>939</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>659544</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="7">
-        <v>900</v>
-      </c>
-      <c r="I20" s="7">
-        <v>623603</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>1839</v>
@@ -4129,13 +4108,13 @@
         <v>1283147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,34 +4123,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>72540</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" s="7">
         <v>114</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>79013</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>72540</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -4180,13 +4159,13 @@
         <v>151553</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,34 +4174,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7">
+        <v>11337</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="7">
         <v>15</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>10475</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H22" s="7">
-        <v>16</v>
-      </c>
-      <c r="I22" s="7">
-        <v>11337</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4231,13 +4210,13 @@
         <v>21812</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,25 +4225,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1020</v>
+      </c>
+      <c r="D23" s="7">
+        <v>707480</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1068</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>749032</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1020</v>
-      </c>
-      <c r="I23" s="7">
-        <v>707480</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4313,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82773699-A2D5-4181-8FAF-65E0D5240686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4A73C-E7F5-401D-A6F0-DBD67F7A731E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4330,7 +4309,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4431,34 +4410,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>178</v>
+      </c>
+      <c r="D4" s="7">
+        <v>111187</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="7">
         <v>163</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>108117</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="7">
-        <v>178</v>
-      </c>
-      <c r="I4" s="7">
-        <v>111187</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
@@ -4467,13 +4446,13 @@
         <v>219304</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,34 +4461,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13003</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" s="7">
         <v>19</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>12647</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13003</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -4518,13 +4497,13 @@
         <v>25650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,34 +4512,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5723</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2712</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H6" s="7">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5723</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4569,13 +4548,13 @@
         <v>8435</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,25 +4563,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>208</v>
+      </c>
+      <c r="D7" s="7">
+        <v>129913</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>186</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>123476</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>208</v>
-      </c>
-      <c r="I7" s="7">
-        <v>129913</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4637,34 +4616,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>282</v>
+      </c>
+      <c r="D8" s="7">
+        <v>179759</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="7">
         <v>316</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>215343</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H8" s="7">
-        <v>282</v>
-      </c>
-      <c r="I8" s="7">
-        <v>179759</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>598</v>
@@ -4673,13 +4652,13 @@
         <v>395103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,34 +4667,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7">
+        <v>21725</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>35348</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" s="7">
-        <v>35</v>
-      </c>
-      <c r="I9" s="7">
-        <v>21725</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
         <v>88</v>
@@ -4724,13 +4703,13 @@
         <v>57073</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,34 +4718,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8462</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5758</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8462</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4775,13 +4754,13 @@
         <v>14221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,25 +4769,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>331</v>
+      </c>
+      <c r="D11" s="7">
+        <v>209946</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>378</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>256449</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>331</v>
-      </c>
-      <c r="I11" s="7">
-        <v>209946</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4843,34 +4822,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7">
+        <v>162376</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="7">
         <v>214</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>153479</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="7">
-        <v>234</v>
-      </c>
-      <c r="I12" s="7">
-        <v>162376</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
         <v>448</v>
@@ -4879,13 +4858,13 @@
         <v>315856</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>105</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,34 +4873,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20784</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="7">
         <v>35</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>24733</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20784</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4930,13 +4909,13 @@
         <v>45516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,34 +4924,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4562</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="7">
         <v>14</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>10360</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4562</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -4981,13 +4960,13 @@
         <v>14922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,25 +4975,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>270</v>
+      </c>
+      <c r="D15" s="7">
+        <v>187722</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>270</v>
-      </c>
-      <c r="I15" s="7">
-        <v>187722</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5049,34 +5028,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>198</v>
+      </c>
+      <c r="D16" s="7">
+        <v>139580</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="7">
         <v>196</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>145297</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H16" s="7">
-        <v>198</v>
-      </c>
-      <c r="I16" s="7">
-        <v>139580</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>394</v>
@@ -5085,13 +5064,13 @@
         <v>284877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,34 +5079,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23947</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="7">
         <v>29</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>21383</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23947</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -5136,13 +5115,13 @@
         <v>45329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,34 +5130,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8606</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4437</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8606</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5187,13 +5166,13 @@
         <v>13044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,25 +5181,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>244</v>
+      </c>
+      <c r="D19" s="7">
+        <v>172133</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>231</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>171117</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>244</v>
-      </c>
-      <c r="I19" s="7">
-        <v>172133</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5255,25 +5234,25 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D20" s="7">
-        <v>622237</v>
+        <v>592902</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>375</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>376</v>
       </c>
       <c r="H20" s="7">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I20" s="7">
-        <v>592902</v>
+        <v>622237</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>377</v>
@@ -5306,10 +5285,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>94110</v>
+        <v>79458</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>383</v>
@@ -5318,22 +5297,22 @@
         <v>384</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="7">
+        <v>136</v>
+      </c>
+      <c r="I21" s="7">
+        <v>94110</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="H21" s="7">
-        <v>119</v>
-      </c>
-      <c r="I21" s="7">
-        <v>79458</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M21" s="7">
         <v>255</v>
@@ -5342,13 +5321,13 @@
         <v>173569</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,34 +5336,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>23267</v>
+        <v>27354</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>393</v>
       </c>
       <c r="H22" s="7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>27354</v>
+        <v>23267</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>394</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -5393,13 +5372,13 @@
         <v>50621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,25 +5387,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1053</v>
+      </c>
+      <c r="D23" s="7">
+        <v>699714</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1058</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>739614</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1053</v>
-      </c>
-      <c r="I23" s="7">
-        <v>699714</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5475,7 +5454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92597480-AAF4-4144-BA97-793DDEA03878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC51F136-EF12-4DB9-A014-3C1545829CA0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5492,7 +5471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5596,46 +5575,46 @@
         <v>101</v>
       </c>
       <c r="D4" s="7">
-        <v>50521</v>
+        <v>52627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
       </c>
       <c r="I4" s="7">
-        <v>52519</v>
+        <v>52902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
       </c>
       <c r="N4" s="7">
-        <v>103038</v>
+        <v>105529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,49 +5623,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4043</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H5" s="7">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>6627</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>7141</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4029</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>10656</v>
+        <v>11183</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,49 +5674,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>841</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
-        <v>1356</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>1401</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>821</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>2177</v>
+        <v>2243</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,25 +5725,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5779,7 +5758,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5799,49 +5778,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>236</v>
+      </c>
+      <c r="D8" s="7">
+        <v>145149</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H8" s="7">
         <v>251</v>
       </c>
-      <c r="D8" s="7">
-        <v>157806</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>164298</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="H8" s="7">
-        <v>236</v>
-      </c>
-      <c r="I8" s="7">
-        <v>144614</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M8" s="7">
         <v>487</v>
       </c>
       <c r="N8" s="7">
-        <v>302420</v>
+        <v>309448</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,49 +5829,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7649</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" s="7">
         <v>18</v>
       </c>
-      <c r="D9" s="7">
-        <v>11793</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>12010</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H9" s="7">
-        <v>13</v>
-      </c>
-      <c r="I9" s="7">
-        <v>7851</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>19643</v>
+        <v>19659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>439</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,49 +5880,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4655</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>4796</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
       <c r="I10" s="7">
-        <v>4704</v>
+        <v>5168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>439</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>443</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>9500</v>
+        <v>9823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>446</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,25 +5931,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>256</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157452</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>275</v>
       </c>
-      <c r="D11" s="7">
-        <v>174394</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>256</v>
-      </c>
       <c r="I11" s="7">
-        <v>157169</v>
+        <v>181477</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5985,7 +5964,7 @@
         <v>531</v>
       </c>
       <c r="N11" s="7">
-        <v>331564</v>
+        <v>338930</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6005,49 +5984,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>216</v>
+      </c>
+      <c r="D12" s="7">
+        <v>161245</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H12" s="7">
         <v>225</v>
       </c>
-      <c r="D12" s="7">
-        <v>188462</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H12" s="7">
-        <v>216</v>
-      </c>
       <c r="I12" s="7">
-        <v>164179</v>
+        <v>198069</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>451</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="M12" s="7">
         <v>441</v>
       </c>
       <c r="N12" s="7">
-        <v>352641</v>
+        <v>359313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,46 +6038,46 @@
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>10115</v>
+        <v>9265</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>9370</v>
+        <v>10463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>459</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>19484</v>
+        <v>19728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,49 +6086,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3378</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
-        <v>3001</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
       <c r="I14" s="7">
-        <v>3396</v>
+        <v>3014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>465</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>6397</v>
+        <v>6393</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>463</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>468</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,25 +6137,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6191,7 +6170,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -6211,49 +6190,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>309</v>
+      </c>
+      <c r="D16" s="7">
+        <v>225068</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="7">
         <v>318</v>
       </c>
-      <c r="D16" s="7">
-        <v>269845</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>285012</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="H16" s="7">
-        <v>309</v>
-      </c>
-      <c r="I16" s="7">
-        <v>228047</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M16" s="7">
         <v>627</v>
       </c>
       <c r="N16" s="7">
-        <v>497893</v>
+        <v>510080</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,49 +6241,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45081</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H17" s="7">
         <v>17</v>
       </c>
-      <c r="D17" s="7">
-        <v>13388</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H17" s="7">
-        <v>26</v>
-      </c>
       <c r="I17" s="7">
-        <v>27135</v>
+        <v>13987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>60</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>40523</v>
+        <v>59068</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>483</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,49 +6292,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3184</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
-        <v>4075</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
       <c r="I18" s="7">
-        <v>3208</v>
+        <v>4269</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>7283</v>
+        <v>7453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>491</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>492</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>365</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,25 +6343,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>339</v>
+      </c>
+      <c r="D19" s="7">
+        <v>273333</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>340</v>
       </c>
-      <c r="D19" s="7">
-        <v>287308</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>339</v>
-      </c>
       <c r="I19" s="7">
-        <v>258390</v>
+        <v>303269</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6397,7 +6376,7 @@
         <v>679</v>
       </c>
       <c r="N19" s="7">
-        <v>545698</v>
+        <v>576602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6417,49 +6396,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>862</v>
+      </c>
+      <c r="D20" s="7">
+        <v>584089</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H20" s="7">
         <v>895</v>
       </c>
-      <c r="D20" s="7">
-        <v>666633</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="H20" s="7">
-        <v>862</v>
-      </c>
       <c r="I20" s="7">
-        <v>589359</v>
+        <v>700282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>1757</v>
       </c>
       <c r="N20" s="7">
-        <v>1255992</v>
+        <v>1284371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,49 +6447,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66037</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H21" s="7">
         <v>60</v>
       </c>
-      <c r="D21" s="7">
-        <v>41922</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H21" s="7">
-        <v>59</v>
-      </c>
       <c r="I21" s="7">
-        <v>48385</v>
+        <v>43602</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="M21" s="7">
         <v>119</v>
       </c>
       <c r="N21" s="7">
-        <v>90307</v>
+        <v>109639</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,49 +6498,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7">
+        <v>12058</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="H22" s="7">
         <v>18</v>
       </c>
-      <c r="D22" s="7">
-        <v>13227</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H22" s="7">
-        <v>17</v>
-      </c>
       <c r="I22" s="7">
-        <v>12129</v>
+        <v>13854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>508</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>510</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>25356</v>
+        <v>25912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,25 +6549,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>938</v>
+      </c>
+      <c r="D23" s="7">
+        <v>662184</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>973</v>
       </c>
-      <c r="D23" s="7">
-        <v>721782</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>938</v>
-      </c>
       <c r="I23" s="7">
-        <v>649873</v>
+        <v>757737</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6603,7 +6582,7 @@
         <v>1911</v>
       </c>
       <c r="N23" s="7">
-        <v>1371655</v>
+        <v>1419922</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
